--- a/data/excel_files/FormattedMar2023.xlsx
+++ b/data/excel_files/FormattedMar2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -55,18 +55,6 @@
   </si>
   <si>
     <t>Exam</t>
-  </si>
-  <si>
-    <t>Coupon 15</t>
-  </si>
-  <si>
-    <t>Coupon 20</t>
-  </si>
-  <si>
-    <t>Coupon 25</t>
-  </si>
-  <si>
-    <t>Coupon 30</t>
   </si>
   <si>
     <t>Acad</t>
@@ -344,13 +332,13 @@
   </sheetPr>
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="I1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -375,20 +363,10 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44986</v>
       </c>
@@ -402,7 +380,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -414,7 +392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44986</v>
@@ -429,7 +407,7 @@
         <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -441,7 +419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44986</v>
@@ -456,7 +434,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -468,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44986</v>
@@ -483,7 +461,7 @@
         <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -495,7 +473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44987</v>
@@ -510,7 +488,7 @@
         <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -522,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44987</v>
@@ -537,7 +515,7 @@
         <v>157</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -549,7 +527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44987</v>
@@ -564,7 +542,7 @@
         <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -576,7 +554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44987</v>
@@ -591,7 +569,7 @@
         <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -603,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44988</v>
@@ -618,7 +596,7 @@
         <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -630,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44988</v>
@@ -645,7 +623,7 @@
         <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -657,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44988</v>
@@ -672,7 +650,7 @@
         <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -684,7 +662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44988</v>
@@ -699,7 +677,7 @@
         <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -711,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44989</v>
@@ -726,7 +704,7 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -738,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44989</v>
@@ -753,7 +731,7 @@
         <v>198</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -765,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44989</v>
@@ -780,7 +758,7 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -792,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44989</v>
@@ -807,7 +785,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -819,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" ref="A18:A21" si="0">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44990</v>
@@ -834,7 +812,7 @@
         <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -846,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>44990</v>
@@ -861,7 +839,7 @@
         <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -873,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>44990</v>
@@ -888,7 +866,7 @@
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -900,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>44990</v>
@@ -915,7 +893,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -927,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" ref="A22:A25" si="1">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44991</v>
@@ -942,7 +920,7 @@
         <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1">
         <v>7</v>
@@ -954,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="1"/>
         <v>44991</v>
@@ -966,7 +944,7 @@
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F23" s="1">
         <v>7</v>
@@ -978,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="1"/>
         <v>44991</v>
@@ -993,7 +971,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F24" s="1">
         <v>7</v>
@@ -1005,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="1"/>
         <v>44991</v>
@@ -1020,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F25" s="1">
         <v>7</v>
@@ -1032,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" ref="A26:A29" si="2">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44992</v>
@@ -1047,7 +1025,7 @@
         <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1">
         <v>7</v>
@@ -1059,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="2"/>
         <v>44992</v>
@@ -1074,7 +1052,7 @@
         <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1">
         <v>7</v>
@@ -1086,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="2"/>
         <v>44992</v>
@@ -1095,7 +1073,7 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1">
         <v>7</v>
@@ -1107,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f t="shared" si="2"/>
         <v>44992</v>
@@ -1122,7 +1100,7 @@
         <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F29" s="1">
         <v>7</v>
@@ -1134,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f t="shared" ref="A30:A33" si="3">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44993</v>
@@ -1149,7 +1127,7 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F30" s="1">
         <v>7</v>
@@ -1161,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f t="shared" si="3"/>
         <v>44993</v>
@@ -1176,7 +1154,7 @@
         <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1">
         <v>7</v>
@@ -1188,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="3"/>
         <v>44993</v>
@@ -1197,7 +1175,7 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F32" s="1">
         <v>7</v>
@@ -1209,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="3"/>
         <v>44993</v>
@@ -1224,7 +1202,7 @@
         <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F33" s="1">
         <v>7</v>
@@ -1236,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" ref="A34:A37" si="4">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44994</v>
@@ -1251,7 +1229,7 @@
         <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F34" s="1">
         <v>7</v>
@@ -1263,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="4"/>
         <v>44994</v>
@@ -1278,7 +1256,7 @@
         <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F35" s="1">
         <v>7</v>
@@ -1290,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" si="4"/>
         <v>44994</v>
@@ -1305,7 +1283,7 @@
         <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1">
         <v>7</v>
@@ -1317,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" si="4"/>
         <v>44994</v>
@@ -1332,7 +1310,7 @@
         <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F37" s="1">
         <v>7</v>
@@ -1344,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" ref="A38:A41" si="5">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44995</v>
@@ -1359,7 +1337,7 @@
         <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F38" s="1">
         <v>7</v>
@@ -1371,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f t="shared" si="5"/>
         <v>44995</v>
@@ -1386,7 +1364,7 @@
         <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F39" s="1">
         <v>7</v>
@@ -1398,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f t="shared" si="5"/>
         <v>44995</v>
@@ -1409,7 +1387,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F40" s="1">
         <v>7</v>
@@ -1421,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f t="shared" si="5"/>
         <v>44995</v>
@@ -1436,7 +1414,7 @@
         <v>87</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F41" s="1">
         <v>7</v>
@@ -1448,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f t="shared" ref="A42:A45" si="6">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44996</v>
@@ -1463,7 +1441,7 @@
         <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F42" s="1">
         <v>7</v>
@@ -1475,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f t="shared" si="6"/>
         <v>44996</v>
@@ -1490,7 +1468,7 @@
         <v>92</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1">
         <v>7</v>
@@ -1502,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f t="shared" si="6"/>
         <v>44996</v>
@@ -1517,7 +1495,7 @@
         <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F44" s="1">
         <v>7</v>
@@ -1529,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f t="shared" si="6"/>
         <v>44996</v>
@@ -1544,7 +1522,7 @@
         <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F45" s="1">
         <v>7</v>
@@ -1556,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f t="shared" ref="A46:A49" si="7">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44997</v>
@@ -1571,7 +1549,7 @@
         <v>69</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F46" s="1">
         <v>7</v>
@@ -1583,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f t="shared" si="7"/>
         <v>44997</v>
@@ -1598,7 +1576,7 @@
         <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1">
         <v>7</v>
@@ -1610,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f t="shared" si="7"/>
         <v>44997</v>
@@ -1625,7 +1603,7 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1">
         <v>7</v>
@@ -1637,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f t="shared" si="7"/>
         <v>44997</v>
@@ -1652,7 +1630,7 @@
         <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F49" s="1">
         <v>7</v>
@@ -1664,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f t="shared" ref="A50:A53" si="8">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44998</v>
@@ -1679,7 +1657,7 @@
         <v>118</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -1691,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f t="shared" si="8"/>
         <v>44998</v>
@@ -1706,7 +1684,7 @@
         <v>231</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -1718,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f t="shared" si="8"/>
         <v>44998</v>
@@ -1733,7 +1711,7 @@
         <v>184</v>
       </c>
       <c r="E52" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -1745,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f t="shared" si="8"/>
         <v>44998</v>
@@ -1760,7 +1738,7 @@
         <v>202</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -1772,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f t="shared" ref="A54:A57" si="9">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44999</v>
@@ -1787,7 +1765,7 @@
         <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -1799,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f t="shared" si="9"/>
         <v>44999</v>
@@ -1814,7 +1792,7 @@
         <v>272</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -1826,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f t="shared" si="9"/>
         <v>44999</v>
@@ -1841,7 +1819,7 @@
         <v>137</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -1853,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f t="shared" si="9"/>
         <v>44999</v>
@@ -1868,7 +1846,7 @@
         <v>173</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -1880,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f t="shared" ref="A58:A61" si="10">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>45000</v>
@@ -1895,7 +1873,7 @@
         <v>162</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -1907,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f t="shared" si="10"/>
         <v>45000</v>
@@ -1922,7 +1900,7 @@
         <v>233</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -1934,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f t="shared" si="10"/>
         <v>45000</v>
@@ -1949,7 +1927,7 @@
         <v>125</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -1961,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f t="shared" si="10"/>
         <v>45000</v>
@@ -1976,7 +1954,7 @@
         <v>291</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -1988,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f t="shared" ref="A62:A65" si="11">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>45001</v>
@@ -2003,7 +1981,7 @@
         <v>136</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -2015,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f t="shared" si="11"/>
         <v>45001</v>
@@ -2030,7 +2008,7 @@
         <v>250</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -2042,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f t="shared" si="11"/>
         <v>45001</v>
@@ -2057,7 +2035,7 @@
         <v>115</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -2069,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f t="shared" si="11"/>
         <v>45001</v>
@@ -2084,7 +2062,7 @@
         <v>194</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -2096,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f t="shared" ref="A66:A69" si="12">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>45002</v>
@@ -2111,7 +2089,7 @@
         <v>155</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -2123,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f t="shared" si="12"/>
         <v>45002</v>
@@ -2138,7 +2116,7 @@
         <v>179</v>
       </c>
       <c r="E67" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -2150,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f t="shared" si="12"/>
         <v>45002</v>
@@ -2165,7 +2143,7 @@
         <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -2177,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f t="shared" si="12"/>
         <v>45002</v>
@@ -2192,7 +2170,7 @@
         <v>169</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -2204,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f t="shared" ref="A70:A73" si="13">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>45003</v>
@@ -2219,7 +2197,7 @@
         <v>106</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F70" s="1">
         <v>1</v>
@@ -2231,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f t="shared" si="13"/>
         <v>45003</v>
@@ -2246,7 +2224,7 @@
         <v>207</v>
       </c>
       <c r="E71" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F71" s="1">
         <v>1</v>
@@ -2258,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f t="shared" si="13"/>
         <v>45003</v>
@@ -2273,7 +2251,7 @@
         <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
@@ -2285,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f t="shared" si="13"/>
         <v>45003</v>
@@ -2300,7 +2278,7 @@
         <v>85</v>
       </c>
       <c r="E73" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F73" s="1">
         <v>1</v>
@@ -2312,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f t="shared" ref="A74:A77" si="14">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>45004</v>
@@ -2327,7 +2305,7 @@
         <v>83</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F74" s="1">
         <v>1</v>
@@ -2339,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f t="shared" si="14"/>
         <v>45004</v>
@@ -2354,7 +2332,7 @@
         <v>133</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F75" s="1">
         <v>1</v>
@@ -2366,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f t="shared" si="14"/>
         <v>45004</v>
@@ -2381,7 +2359,7 @@
         <v>65</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F76" s="1">
         <v>1</v>
@@ -2393,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f t="shared" si="14"/>
         <v>45004</v>
@@ -2408,7 +2386,7 @@
         <v>215</v>
       </c>
       <c r="E77" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F77" s="1">
         <v>1</v>
@@ -2420,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f t="shared" ref="A78:A81" si="15">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>45005</v>
@@ -2435,7 +2413,7 @@
         <v>138</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -2447,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f t="shared" si="15"/>
         <v>45005</v>
@@ -2462,7 +2440,7 @@
         <v>213</v>
       </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -2474,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f t="shared" si="15"/>
         <v>45005</v>
@@ -2489,7 +2467,7 @@
         <v>199</v>
       </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -2501,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f t="shared" si="15"/>
         <v>45005</v>
@@ -2516,7 +2494,7 @@
         <v>191</v>
       </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -2528,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f t="shared" ref="A82:A85" si="16">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>45006</v>
@@ -2543,7 +2521,7 @@
         <v>144</v>
       </c>
       <c r="E82" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -2555,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f t="shared" si="16"/>
         <v>45006</v>
@@ -2570,7 +2548,7 @@
         <v>256</v>
       </c>
       <c r="E83" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -2582,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f t="shared" si="16"/>
         <v>45006</v>
@@ -2597,7 +2575,7 @@
         <v>140</v>
       </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -2609,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f t="shared" si="16"/>
         <v>45006</v>
@@ -2624,7 +2602,7 @@
         <v>168</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -2636,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f t="shared" ref="A86:A89" si="17">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>45007</v>
@@ -2651,7 +2629,7 @@
         <v>174</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -2663,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f t="shared" si="17"/>
         <v>45007</v>
@@ -2678,7 +2656,7 @@
         <v>207</v>
       </c>
       <c r="E87" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -2690,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f t="shared" si="17"/>
         <v>45007</v>
@@ -2705,7 +2683,7 @@
         <v>130</v>
       </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -2717,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f t="shared" si="17"/>
         <v>45007</v>
@@ -2732,7 +2710,7 @@
         <v>267</v>
       </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -2744,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f t="shared" ref="A90:A93" si="18">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>45008</v>
@@ -2759,7 +2737,7 @@
         <v>135</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -2771,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f t="shared" si="18"/>
         <v>45008</v>
@@ -2786,7 +2764,7 @@
         <v>218</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -2798,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f t="shared" si="18"/>
         <v>45008</v>
@@ -2813,7 +2791,7 @@
         <v>138</v>
       </c>
       <c r="E92" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -2825,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f t="shared" si="18"/>
         <v>45008</v>
@@ -2840,7 +2818,7 @@
         <v>161</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -2852,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f t="shared" ref="A94:A97" si="19">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>45009</v>
@@ -2867,7 +2845,7 @@
         <v>128</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -2879,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f t="shared" si="19"/>
         <v>45009</v>
@@ -2894,7 +2872,7 @@
         <v>151</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -2906,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f t="shared" si="19"/>
         <v>45009</v>
@@ -2921,7 +2899,7 @@
         <v>74</v>
       </c>
       <c r="E96" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -2933,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f t="shared" si="19"/>
         <v>45009</v>
@@ -2948,7 +2926,7 @@
         <v>153</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -2960,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f t="shared" ref="A98:A101" si="20">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>45010</v>
@@ -2975,7 +2953,7 @@
         <v>100</v>
       </c>
       <c r="E98" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F98" s="1">
         <v>1</v>
@@ -2987,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f t="shared" si="20"/>
         <v>45010</v>
@@ -3002,7 +2980,7 @@
         <v>188</v>
       </c>
       <c r="E99" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F99" s="1">
         <v>1</v>
@@ -3014,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f t="shared" si="20"/>
         <v>45010</v>
@@ -3029,7 +3007,7 @@
         <v>88</v>
       </c>
       <c r="E100" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F100" s="1">
         <v>1</v>
@@ -3041,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f t="shared" si="20"/>
         <v>45010</v>
@@ -3056,7 +3034,7 @@
         <v>53</v>
       </c>
       <c r="E101" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F101" s="1">
         <v>1</v>
@@ -3068,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f t="shared" ref="A102:A105" si="21">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>45011</v>
@@ -3083,7 +3061,7 @@
         <v>94</v>
       </c>
       <c r="E102" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F102" s="1">
         <v>1</v>
@@ -3095,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f t="shared" si="21"/>
         <v>45011</v>
@@ -3110,7 +3088,7 @@
         <v>107</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F103" s="1">
         <v>1</v>
@@ -3122,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f t="shared" si="21"/>
         <v>45011</v>
@@ -3137,7 +3115,7 @@
         <v>71</v>
       </c>
       <c r="E104" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F104" s="1">
         <v>1</v>
@@ -3149,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f t="shared" si="21"/>
         <v>45011</v>
@@ -3164,7 +3142,7 @@
         <v>194</v>
       </c>
       <c r="E105" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
@@ -3176,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f t="shared" ref="A106:A109" si="22">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>45012</v>
@@ -3191,7 +3169,7 @@
         <v>110</v>
       </c>
       <c r="E106" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
@@ -3203,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f t="shared" si="22"/>
         <v>45012</v>
@@ -3218,7 +3196,7 @@
         <v>190</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -3230,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f t="shared" si="22"/>
         <v>45012</v>
@@ -3245,7 +3223,7 @@
         <v>147</v>
       </c>
       <c r="E108" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F108" s="1">
         <v>0</v>
@@ -3257,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f t="shared" si="22"/>
         <v>45012</v>
@@ -3272,7 +3250,7 @@
         <v>199</v>
       </c>
       <c r="E109" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -3284,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f t="shared" ref="A110:A113" si="23">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>45013</v>
@@ -3299,7 +3277,7 @@
         <v>128</v>
       </c>
       <c r="E110" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -3311,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f t="shared" si="23"/>
         <v>45013</v>
@@ -3326,7 +3304,7 @@
         <v>234</v>
       </c>
       <c r="E111" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F111" s="1">
         <v>0</v>
@@ -3338,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f t="shared" si="23"/>
         <v>45013</v>
@@ -3353,7 +3331,7 @@
         <v>148</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -3365,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f t="shared" si="23"/>
         <v>45013</v>
@@ -3380,7 +3358,7 @@
         <v>129</v>
       </c>
       <c r="E113" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -3392,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f t="shared" ref="A114:A117" si="24">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>45014</v>
@@ -3407,7 +3385,7 @@
         <v>136</v>
       </c>
       <c r="E114" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -3419,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f t="shared" si="24"/>
         <v>45014</v>
@@ -3434,7 +3412,7 @@
         <v>186</v>
       </c>
       <c r="E115" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
@@ -3446,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f t="shared" si="24"/>
         <v>45014</v>
@@ -3461,7 +3439,7 @@
         <v>126</v>
       </c>
       <c r="E116" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -3473,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f t="shared" si="24"/>
         <v>45014</v>
@@ -3488,7 +3466,7 @@
         <v>254</v>
       </c>
       <c r="E117" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F117" s="1">
         <v>0</v>
@@ -3500,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f t="shared" ref="A118:A121" si="25">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>45015</v>
@@ -3515,7 +3493,7 @@
         <v>118</v>
       </c>
       <c r="E118" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F118" s="1">
         <v>0</v>
@@ -3527,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f t="shared" si="25"/>
         <v>45015</v>
@@ -3542,7 +3520,7 @@
         <v>183</v>
       </c>
       <c r="E119" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
@@ -3554,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f t="shared" si="25"/>
         <v>45015</v>
@@ -3569,7 +3547,7 @@
         <v>109</v>
       </c>
       <c r="E120" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F120" s="1">
         <v>0</v>
@@ -3581,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f t="shared" si="25"/>
         <v>45015</v>
@@ -3596,7 +3574,7 @@
         <v>146</v>
       </c>
       <c r="E121" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F121" s="1">
         <v>0</v>
@@ -3608,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f t="shared" ref="A122:A125" si="26">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>45016</v>
@@ -3623,7 +3601,7 @@
         <v>111</v>
       </c>
       <c r="E122" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
@@ -3635,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f t="shared" si="26"/>
         <v>45016</v>
@@ -3650,7 +3628,7 @@
         <v>113</v>
       </c>
       <c r="E123" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F123" s="1">
         <v>0</v>
@@ -3662,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f t="shared" si="26"/>
         <v>45016</v>
@@ -3677,7 +3655,7 @@
         <v>79</v>
       </c>
       <c r="E124" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F124" s="1">
         <v>0</v>
@@ -3689,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <f t="shared" si="26"/>
         <v>45016</v>
@@ -3704,7 +3682,7 @@
         <v>115</v>
       </c>
       <c r="E125" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
